--- a/data/trans_dic/Q23_tabaco_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/Q23_tabaco_R2-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.2298103770589362</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2046435609798272</v>
+        <v>0.2046435609798273</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2090784139299973</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1827030657318275</v>
+        <v>0.1806019093942846</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1770698218945597</v>
+        <v>0.1757132479518102</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1752906880336201</v>
+        <v>0.1770942740879999</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1773215526671213</v>
+        <v>0.176150964278255</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09852660819926068</v>
+        <v>0.09535314969196862</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1318779339715773</v>
+        <v>0.1294407090598514</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1657134224045116</v>
+        <v>0.1625770858587257</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1528755521306907</v>
+        <v>0.1484317491005844</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1686137491837589</v>
+        <v>0.1657092685864233</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.171927368261759</v>
+        <v>0.1727602169672779</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1870323831473281</v>
+        <v>0.186312401800661</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1810226213966347</v>
+        <v>0.1839227441499423</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2973607603857051</v>
+        <v>0.2944269751801735</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2845099695247185</v>
+        <v>0.2949597494043754</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3098234980801746</v>
+        <v>0.2976494440487076</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2950981674752669</v>
+        <v>0.2897617930838502</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2369404987098465</v>
+        <v>0.2377666904752513</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2760846060344774</v>
+        <v>0.2737252470620599</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3167067665408574</v>
+        <v>0.3249817729017213</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2695664586481211</v>
+        <v>0.2667072675083363</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.258011610093375</v>
+        <v>0.255324721906298</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2606526538072695</v>
+        <v>0.2605946452046742</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2875392374919558</v>
+        <v>0.2839591102451651</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.26431472293487</v>
+        <v>0.2663210778215631</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.208530002676739</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2520253513789472</v>
+        <v>0.2520253513789473</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2709779967688353</v>
@@ -833,7 +833,7 @@
         <v>0.2799806307381106</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2720108045573293</v>
+        <v>0.2720108045573292</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2196238931722463</v>
+        <v>0.2262820683455905</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2131729492515782</v>
+        <v>0.2074877948866064</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2768791694313784</v>
+        <v>0.2730599725231415</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2212822701048151</v>
+        <v>0.2207490418134707</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1865544846099488</v>
+        <v>0.1848080082948811</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1875831182541224</v>
+        <v>0.1917618640895725</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1449538320133147</v>
+        <v>0.1466919965053461</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1905017042046079</v>
+        <v>0.190833543101424</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2208264612335757</v>
+        <v>0.2258391579136791</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2201844552106523</v>
+        <v>0.2163488619118014</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2347726383359688</v>
+        <v>0.2297962017307188</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2297244212059666</v>
+        <v>0.2291184766177275</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3528920127338082</v>
+        <v>0.3598766837419396</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3368933799252777</v>
+        <v>0.3374630519089292</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.423605222127316</v>
+        <v>0.4231898187678444</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.35529271800245</v>
+        <v>0.3580634855400973</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3263927520531408</v>
+        <v>0.3228443635660488</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3455385453649779</v>
+        <v>0.3378429614744007</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2761535014296926</v>
+        <v>0.2729012268464082</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3132997669214423</v>
+        <v>0.3183217658887808</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3164077256072807</v>
+        <v>0.3213924177362948</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3156445008150359</v>
+        <v>0.3151860403122023</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3351464285837074</v>
+        <v>0.3307441617093836</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3182066316034642</v>
+        <v>0.3191811591241581</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2893793853446056</v>
+        <v>0.289483199510509</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3297961395283095</v>
+        <v>0.3307922738293012</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3370715534620682</v>
+        <v>0.3312645811585663</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3087198744210957</v>
+        <v>0.3058577876925221</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1099490237244556</v>
+        <v>0.09972005949495132</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1271868066567743</v>
+        <v>0.1239362477714864</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1647396343879543</v>
+        <v>0.1608175936196151</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1527669417706199</v>
+        <v>0.1467942295565152</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2675259873569842</v>
+        <v>0.2695518625152211</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2971513958818996</v>
+        <v>0.2961511826243559</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3152642218932069</v>
+        <v>0.3137131094496929</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2942185780809087</v>
+        <v>0.2820138490065375</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3950683510744746</v>
+        <v>0.3935437214812369</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4275257756023847</v>
+        <v>0.4349611183321234</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.44800168351418</v>
+        <v>0.4424235226186052</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4351419840467045</v>
+        <v>0.4357582755782222</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3010156274796417</v>
+        <v>0.3066170009641329</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2726356876261836</v>
+        <v>0.269039381059362</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3784668657612609</v>
+        <v>0.3820140840409722</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3557712530183329</v>
+        <v>0.354639445929947</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3645919645162229</v>
+        <v>0.3655955337487389</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3817847929047584</v>
+        <v>0.3847920252389037</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4209738506230906</v>
+        <v>0.4186758614201049</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3999529669068346</v>
+        <v>0.3985999400621755</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.2462954703748846</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2499037541420343</v>
+        <v>0.2499037541420342</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.3500325288430739</v>
@@ -1105,7 +1105,7 @@
         <v>0.3244108020139763</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.3195422832688712</v>
+        <v>0.3195422832688714</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3451982496384352</v>
+        <v>0.3400408305322549</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3630655027577001</v>
+        <v>0.360850164490492</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3331092409960992</v>
+        <v>0.3346936653692856</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3132411753681561</v>
+        <v>0.3115276457415271</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.223085934145528</v>
+        <v>0.2241458070138517</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2385821443111968</v>
+        <v>0.2396476012430326</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2040414951065917</v>
+        <v>0.2019778388935972</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2068128440666262</v>
+        <v>0.2069753382741714</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3185105296430553</v>
+        <v>0.3207045683454426</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3335383778187443</v>
+        <v>0.3344721510206584</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2940980201790765</v>
+        <v>0.2966608540590335</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2886579846404314</v>
+        <v>0.287330738013459</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.415635992280401</v>
+        <v>0.4163720898401981</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4358157727603852</v>
+        <v>0.4348392922164438</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4105663101284283</v>
+        <v>0.4120191950254503</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3974762802298482</v>
+        <v>0.3979490003993057</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3332623530000914</v>
+        <v>0.3315205219519115</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3333711989789317</v>
+        <v>0.3355640728106596</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2929920098614825</v>
+        <v>0.2870575730212711</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2961003325865946</v>
+        <v>0.2997927091536687</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.380131807423937</v>
+        <v>0.3796691795953646</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3913887715132816</v>
+        <v>0.3920086140101556</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3529616335494671</v>
+        <v>0.3543408576498466</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3518205080030928</v>
+        <v>0.3515093678865696</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.367238660909337</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3173005137769885</v>
+        <v>0.3173005137769884</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3683542172219996</v>
+        <v>0.3665438890948461</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3288143160148301</v>
+        <v>0.3322854639155964</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3405484784523129</v>
+        <v>0.3426657376964064</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3329763680708204</v>
+        <v>0.3321149091118485</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2537488925835311</v>
+        <v>0.2552697646342861</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.245676047152645</v>
+        <v>0.2441031701266876</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.283254930776865</v>
+        <v>0.2815346147998322</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1916553312519386</v>
+        <v>0.1923357144146924</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3320346499505217</v>
+        <v>0.3320101855658381</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3089560136080529</v>
+        <v>0.3040315054225355</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3246189389341909</v>
+        <v>0.3256360970802535</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2785276475060252</v>
+        <v>0.2781774577573379</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5039991307491172</v>
+        <v>0.5042491777149186</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4361748630161599</v>
+        <v>0.4346510902483133</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4479079919654914</v>
+        <v>0.4473797477160531</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4594428082906748</v>
+        <v>0.4509151253070491</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3897436124577458</v>
+        <v>0.3842054400974077</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3639661512363901</v>
+        <v>0.3585318265154114</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3942027389599777</v>
+        <v>0.3934733711520509</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2929384066842061</v>
+        <v>0.2955005203996628</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4327301548368787</v>
+        <v>0.4281767132147284</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3855502299708781</v>
+        <v>0.383244691718152</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4037243389617882</v>
+        <v>0.4091398257561529</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3599880448173296</v>
+        <v>0.3577107812424857</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.3927275019281998</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.2784015532791179</v>
+        <v>0.278401553279118</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.2814319472199613</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3518473080957063</v>
+        <v>0.3513949107338111</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3337038570814308</v>
+        <v>0.3394038330188396</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.285001375238111</v>
+        <v>0.2800145619138987</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1080342091371228</v>
+        <v>0.09586393121646515</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2194841142956349</v>
+        <v>0.2253270569372931</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2802682503053047</v>
+        <v>0.2844598275551954</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1851908862519054</v>
+        <v>0.1804318386760965</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1170169011000319</v>
+        <v>0.1235324815766944</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2746491853108002</v>
+        <v>0.2766393603326637</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3074514717485203</v>
+        <v>0.3140603736308095</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2358018925882253</v>
+        <v>0.2284888739702366</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1350086372239017</v>
+        <v>0.1364438147282084</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5930802812409522</v>
+        <v>0.5860146335124309</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5897077790548064</v>
+        <v>0.6124202899981934</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5141381200839605</v>
+        <v>0.5102357054065291</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.588392695827803</v>
+        <v>0.5702995409398628</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3459515575105891</v>
+        <v>0.3488186809348758</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4084400115508453</v>
+        <v>0.4105890919188739</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3108233702637146</v>
+        <v>0.3039762399086776</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2383784825274718</v>
+        <v>0.2550966551840435</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3832332681545008</v>
+        <v>0.3869804332835008</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4295308096522981</v>
+        <v>0.423126417255537</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3351789230143089</v>
+        <v>0.3384461712184432</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.278823149738741</v>
+        <v>0.2800450304767638</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.3625000865430139</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.336119326546653</v>
+        <v>0.3361193265466531</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2620698758349299</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3345469638571553</v>
+        <v>0.33175878982169</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3354597377340948</v>
+        <v>0.3371747658318439</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3393233479248328</v>
+        <v>0.3399028243790096</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3102069580068538</v>
+        <v>0.3092238244082091</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.234851349061347</v>
+        <v>0.2361667001877197</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2519864403329817</v>
+        <v>0.2523387915621683</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.232882882403251</v>
+        <v>0.2382772277511218</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2062397433520847</v>
+        <v>0.2089158765962972</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3035274930717679</v>
+        <v>0.3018138287408645</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3110999853554418</v>
+        <v>0.3085407221113386</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3032066974057535</v>
+        <v>0.3039252415397077</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2762126136807451</v>
+        <v>0.276561154497198</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3785795280064431</v>
+        <v>0.3778458015451739</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3799945977393886</v>
+        <v>0.3826374152489834</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3844945513537395</v>
+        <v>0.3835071262156464</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3624383587414914</v>
+        <v>0.3620275061284988</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2905251527248186</v>
+        <v>0.290357771554266</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3022601133113444</v>
+        <v>0.3043035525999076</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2840525845201329</v>
+        <v>0.2859969684584462</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2541915443937554</v>
+        <v>0.2558022156657532</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3400599711810623</v>
+        <v>0.3380269194161983</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.34438569898233</v>
+        <v>0.3432137137833702</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3376524048844934</v>
+        <v>0.3383265406227642</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3108047479123645</v>
+        <v>0.3147251958807124</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>40144</v>
+        <v>39683</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>43718</v>
+        <v>43383</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>34631</v>
+        <v>34987</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>39250</v>
+        <v>38991</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>11033</v>
+        <v>10677</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>18986</v>
+        <v>18635</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>21440</v>
+        <v>21034</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>21585</v>
+        <v>20957</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>55929</v>
+        <v>54966</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>67200</v>
+        <v>67526</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>61149</v>
+        <v>60914</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>65628</v>
+        <v>66679</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>65338</v>
+        <v>64693</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>70244</v>
+        <v>72824</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>61210</v>
+        <v>58805</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>65319</v>
+        <v>64138</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>26532</v>
+        <v>26624</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>39747</v>
+        <v>39407</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>40975</v>
+        <v>42045</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>38060</v>
+        <v>37657</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>85583</v>
+        <v>84691</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>101880</v>
+        <v>101857</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>94009</v>
+        <v>92838</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>95824</v>
+        <v>96552</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>40212</v>
+        <v>41431</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>49383</v>
+        <v>48066</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>48670</v>
+        <v>47998</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>43069</v>
+        <v>42965</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>29583</v>
+        <v>29306</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>32374</v>
+        <v>33096</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>23053</v>
+        <v>23329</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>29236</v>
+        <v>29287</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>75450</v>
+        <v>77163</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>89008</v>
+        <v>87458</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>78605</v>
+        <v>76939</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>79967</v>
+        <v>79756</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>64613</v>
+        <v>65892</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>78044</v>
+        <v>78176</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>74461</v>
+        <v>74388</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>69152</v>
+        <v>69691</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>51758</v>
+        <v>51196</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>59635</v>
+        <v>58307</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>43918</v>
+        <v>43401</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>48081</v>
+        <v>48852</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>108107</v>
+        <v>109810</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>127597</v>
+        <v>127412</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>112212</v>
+        <v>110738</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>110768</v>
+        <v>111107</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>88472</v>
+        <v>88504</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>133613</v>
+        <v>134017</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>106256</v>
+        <v>104425</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>71584</v>
+        <v>70920</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6707</v>
+        <v>6083</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14410</v>
+        <v>14042</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>10596</v>
+        <v>10344</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>7529</v>
+        <v>7235</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>98111</v>
+        <v>98854</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>154054</v>
+        <v>153536</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>119659</v>
+        <v>119071</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>82722</v>
+        <v>79291</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>120784</v>
+        <v>120318</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>173207</v>
+        <v>176220</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>141224</v>
+        <v>139466</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>100898</v>
+        <v>101041</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>18363</v>
+        <v>18705</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>30889</v>
+        <v>30482</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>24343</v>
+        <v>24572</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>17535</v>
+        <v>17479</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>133709</v>
+        <v>134077</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>197931</v>
+        <v>199490</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>159782</v>
+        <v>158910</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>112450</v>
+        <v>112070</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>245013</v>
+        <v>241352</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>280944</v>
+        <v>279230</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>215741</v>
+        <v>216767</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>178046</v>
+        <v>177072</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>59716</v>
+        <v>60000</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>93030</v>
+        <v>93445</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>82004</v>
+        <v>81175</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>64106</v>
+        <v>64157</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>311331</v>
+        <v>313475</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>388152</v>
+        <v>389239</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>308673</v>
+        <v>311362</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>253549</v>
+        <v>252383</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>295008</v>
+        <v>295531</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>337239</v>
+        <v>336484</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>265906</v>
+        <v>266847</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>225926</v>
+        <v>226194</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>89209</v>
+        <v>88742</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>129991</v>
+        <v>130846</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>117754</v>
+        <v>115369</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>91783</v>
+        <v>92927</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>371563</v>
+        <v>371111</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>455475</v>
+        <v>456196</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>370453</v>
+        <v>371901</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>309029</v>
+        <v>308756</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>79898</v>
+        <v>79505</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>105894</v>
+        <v>107012</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>120742</v>
+        <v>121492</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>92160</v>
+        <v>91921</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>49763</v>
+        <v>50061</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>68556</v>
+        <v>68117</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>80063</v>
+        <v>79577</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>47930</v>
+        <v>48100</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>137136</v>
+        <v>137126</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>185713</v>
+        <v>182752</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>206848</v>
+        <v>207496</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>146745</v>
+        <v>146561</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>109320</v>
+        <v>109374</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>140469</v>
+        <v>139979</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>158806</v>
+        <v>158619</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>127163</v>
+        <v>124802</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>76433</v>
+        <v>75347</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>101564</v>
+        <v>100048</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>111423</v>
+        <v>111216</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>73260</v>
+        <v>73900</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>178725</v>
+        <v>176845</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>231753</v>
+        <v>230367</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>257254</v>
+        <v>260705</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>189663</v>
+        <v>188464</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>26424</v>
+        <v>26390</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>18105</v>
+        <v>18414</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>21410</v>
+        <v>21036</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3435</v>
+        <v>3048</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>43975</v>
+        <v>45145</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>60424</v>
+        <v>61328</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>38136</v>
+        <v>37156</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>14885</v>
+        <v>15714</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>75653</v>
+        <v>76201</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>82966</v>
+        <v>84749</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>66272</v>
+        <v>64217</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>21467</v>
+        <v>21695</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>44540</v>
+        <v>44010</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>31995</v>
+        <v>33227</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>38624</v>
+        <v>38330</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>18709</v>
+        <v>18133</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>69313</v>
+        <v>69888</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>88058</v>
+        <v>88521</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>64007</v>
+        <v>62597</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>30323</v>
+        <v>32450</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>105563</v>
+        <v>106595</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>115909</v>
+        <v>114181</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>94202</v>
+        <v>95120</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>44334</v>
+        <v>44528</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>572186</v>
+        <v>567417</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>682261</v>
+        <v>685749</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>599213</v>
+        <v>600237</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>473012</v>
+        <v>471513</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>233843</v>
+        <v>235153</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>331217</v>
+        <v>331680</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>289523</v>
+        <v>296230</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>212676</v>
+        <v>215436</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>821357</v>
+        <v>816719</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1041635</v>
+        <v>1033066</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>912386</v>
+        <v>914548</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>706009</v>
+        <v>706900</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>647496</v>
+        <v>646241</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>772836</v>
+        <v>778211</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>678982</v>
+        <v>677238</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>552656</v>
+        <v>552029</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>289278</v>
+        <v>289112</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>397298</v>
+        <v>399984</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>353138</v>
+        <v>355555</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>262124</v>
+        <v>263785</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>920215</v>
+        <v>914713</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1153083</v>
+        <v>1149159</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1016037</v>
+        <v>1018065</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>794428</v>
+        <v>804448</v>
       </c>
     </row>
     <row r="32">
